--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,12; 94,87</t>
+          <t>83,66; 94,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,17; 85,94</t>
+          <t>74,08; 86,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,27; 89,31</t>
+          <t>80,6; 89,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,21; 85,57</t>
+          <t>74,67; 85,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,28; 82,69</t>
+          <t>74,69; 83,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,59; 82,88</t>
+          <t>76,23; 82,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,51; 80,93</t>
+          <t>73,56; 81,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,76; 77,08</t>
+          <t>70,9; 76,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,27; 78,14</t>
+          <t>73,13; 78,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,94; 78,06</t>
+          <t>67,13; 77,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,02; 72,7</t>
+          <t>66,93; 72,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,34; 74,52</t>
+          <t>67,95; 73,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,68; 73,86</t>
+          <t>66,55; 73,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,03; 64,42</t>
+          <t>58,12; 64,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,49; 68,32</t>
+          <t>63,31; 68,48</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,4; 66,45</t>
+          <t>60,04; 66,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,45; 56,28</t>
+          <t>32,21; 56,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,94; 59,53</t>
+          <t>43,56; 59,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,08; 75,86</t>
+          <t>71,95; 75,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,68; 68,39</t>
+          <t>58,43; 68,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66,02; 71,16</t>
+          <t>65,16; 71,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>83,41%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91,77%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>87,74%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>85,03%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>88,75%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,43%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,66; 94,88</t>
+          <t>86,47; 92,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,08; 86,73</t>
+          <t>80,42; 87,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,6; 89,19</t>
+          <t>79,75; 86,66</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85,23; 95,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84,51; 90,52</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73,33; 81,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77,17; 84,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78,36; 90,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86,63; 90,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78,17; 83,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79,48; 84,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83,98; 91,9</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>82,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85,23%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>84,58%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>84,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>86,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82,71%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,67; 85,76</t>
+          <t>85,07; 90,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,69; 83,28</t>
+          <t>77,22; 83,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,23; 82,95</t>
+          <t>79,15; 85,69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79,58; 89,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81,51; 87,37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76,11; 82,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80,93; 87,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>76,29; 84,84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84,34; 88,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>77,7; 82,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81,12; 85,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79,54; 85,58</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,37%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,65%</t>
+          <t>80,45%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>83,33%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>79,75%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78,64%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,56; 81,06</t>
+          <t>80,73; 86,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,9; 76,98</t>
+          <t>74,87; 81,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,13; 78,09</t>
+          <t>77,03; 83,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76,2; 83,5</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80,43; 86,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73,57; 80,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75,97; 82,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>74,36; 80,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81,1; 85,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75,45; 79,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>77,35; 81,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76,21; 80,79</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>82,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>79,28%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>74,5%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>78,9%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66,77%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75,89%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73,45%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,13; 77,8</t>
+          <t>78,75; 85,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,93; 72,81</t>
+          <t>69,73; 77,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,95; 73,94</t>
+          <t>75,76; 82,44</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70,09; 80,03</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>75,5; 82,46</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63,06; 70,66</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68,86; 75,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>69,39; 74,95</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>78,35; 83,21</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>67,39; 72,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73,11; 78,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>70,89; 76,4</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>75,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71,74%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73,28%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>70,25%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66,64%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,55; 73,79</t>
+          <t>74,28; 82,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,12; 64,32</t>
+          <t>69,18; 78,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,31; 68,48</t>
+          <t>70,53; 79,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67,88; 75,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68,89; 77,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54,42; 63,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60,59; 70,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58,5; 64,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>72,63; 78,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63,25; 69,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66,79; 73,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64,07; 69,07</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>60,74%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>63,55%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,04; 66,23</t>
+          <t>57,34; 65,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,21; 56,2</t>
+          <t>48,89; 57,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,56; 59,63</t>
+          <t>56,82; 64,65</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60,17; 66,36</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47,34; 55,22</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44,58; 51,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49,55; 57,32</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32,27; 56,47</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52,92; 58,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>47,61; 53,57</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>53,9; 59,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43,61; 59,81</t>
         </is>
       </c>
     </row>
@@ -856,17 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>73,84%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>76,78%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>75,84%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>75,96%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67,49%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>67,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
         </is>
       </c>
     </row>
@@ -879,17 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,95; 75,63</t>
+          <t>80,08; 83,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,43; 68,39</t>
+          <t>72,57; 75,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>65,16; 71,22</t>
+          <t>75,24; 78,26</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74,09; 77,52</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74,28; 77,33</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>66,01; 69,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69,95; 73,08</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 70,15</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>77,57; 79,67</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>69,67; 71,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>72,99; 75,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66,57; 73,01</t>
         </is>
       </c>
     </row>
@@ -901,14 +1631,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,47; 92,13</t>
+          <t>86,31; 92,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,42; 87,38</t>
+          <t>80,89; 87,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,75; 86,66</t>
+          <t>79,44; 87,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,23; 95,87</t>
+          <t>85,31; 95,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,51; 90,52</t>
+          <t>84,69; 90,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,33; 81,15</t>
+          <t>72,94; 81,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,17; 84,69</t>
+          <t>77,07; 85,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,36; 90,0</t>
+          <t>79,52; 90,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,63; 90,79</t>
+          <t>86,51; 90,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,17; 83,45</t>
+          <t>78,24; 83,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,48; 84,91</t>
+          <t>79,73; 84,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,98; 91,9</t>
+          <t>84,72; 91,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,07; 90,29</t>
+          <t>85,34; 90,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,22; 83,35</t>
+          <t>77,43; 83,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,15; 85,69</t>
+          <t>78,86; 85,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,58; 89,33</t>
+          <t>80,17; 88,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,51; 87,37</t>
+          <t>81,71; 87,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,11; 82,6</t>
+          <t>75,77; 82,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,93; 87,32</t>
+          <t>81,27; 87,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 84,84</t>
+          <t>76,1; 84,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,34; 88,22</t>
+          <t>84,35; 88,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,7; 82,35</t>
+          <t>77,02; 82,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,12; 85,54</t>
+          <t>81,09; 85,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,54; 85,58</t>
+          <t>79,52; 85,57</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,73; 86,65</t>
+          <t>80,5; 86,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,87; 81,64</t>
+          <t>75,04; 82,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,03; 83,61</t>
+          <t>77,38; 83,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,2; 83,5</t>
+          <t>76,17; 83,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,43; 86,31</t>
+          <t>80,19; 86,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 80,16</t>
+          <t>73,67; 80,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,97; 82,03</t>
+          <t>75,97; 82,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,36; 80,43</t>
+          <t>74,05; 80,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,1; 85,49</t>
+          <t>81,39; 85,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,45; 79,87</t>
+          <t>75,69; 80,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,35; 81,92</t>
+          <t>77,47; 81,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,21; 80,79</t>
+          <t>76,29; 80,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,75; 85,86</t>
+          <t>79,1; 86,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,73; 77,49</t>
+          <t>69,58; 77,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,76; 82,44</t>
+          <t>75,72; 82,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,09; 80,03</t>
+          <t>70,05; 80,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,5; 82,46</t>
+          <t>74,93; 82,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,06; 70,66</t>
+          <t>62,77; 70,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,86; 75,97</t>
+          <t>68,92; 76,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,39; 74,95</t>
+          <t>69,52; 74,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,35; 83,21</t>
+          <t>78,08; 83,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,39; 72,73</t>
+          <t>67,2; 72,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,11; 78,24</t>
+          <t>73,22; 78,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,89; 76,4</t>
+          <t>71,11; 76,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,28; 82,59</t>
+          <t>74,52; 82,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 78,06</t>
+          <t>69,04; 78,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,53; 79,27</t>
+          <t>71,05; 79,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,88; 75,16</t>
+          <t>67,91; 75,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>68,89; 77,43</t>
+          <t>69,08; 77,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,42; 63,95</t>
+          <t>53,95; 63,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,59; 70,09</t>
+          <t>60,63; 69,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,5; 64,59</t>
+          <t>58,3; 64,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,63; 78,97</t>
+          <t>73,13; 79,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,25; 69,69</t>
+          <t>62,83; 69,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66,79; 73,12</t>
+          <t>67,14; 73,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>64,07; 69,07</t>
+          <t>64,19; 69,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,34; 65,6</t>
+          <t>57,41; 66,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,89; 57,99</t>
+          <t>48,74; 57,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,82; 64,65</t>
+          <t>56,66; 64,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,17; 66,36</t>
+          <t>60,63; 66,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 55,22</t>
+          <t>47,88; 55,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,58; 51,85</t>
+          <t>44,19; 51,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,55; 57,32</t>
+          <t>49,61; 57,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,27; 56,47</t>
+          <t>34,51; 56,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,92; 58,77</t>
+          <t>52,92; 58,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,61; 53,57</t>
+          <t>47,44; 53,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,9; 59,24</t>
+          <t>53,81; 59,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,61; 59,81</t>
+          <t>40,99; 59,72</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,08; 83,06</t>
+          <t>79,88; 82,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,57; 75,58</t>
+          <t>72,61; 75,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,24; 78,26</t>
+          <t>75,25; 78,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,09; 77,52</t>
+          <t>74,11; 77,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,33</t>
+          <t>74,35; 77,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,01; 69,05</t>
+          <t>65,73; 69,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,95; 73,08</t>
+          <t>69,91; 73,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,85; 70,15</t>
+          <t>59,94; 70,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,67</t>
+          <t>77,7; 79,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>69,67; 71,92</t>
+          <t>69,55; 71,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72,99; 75,14</t>
+          <t>72,96; 75,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>66,57; 73,01</t>
+          <t>67,73; 72,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>88,29%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,31; 95,97</t>
+          <t>84,12; 95,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,52; 90,2</t>
+          <t>79,48; 90,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,72; 91,72</t>
+          <t>84,2; 91,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>83,1%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,17; 88,91</t>
+          <t>79,02; 88,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,1; 84,02</t>
+          <t>77,2; 88,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,52; 85,57</t>
+          <t>79,58; 87,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>79,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>77,38%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>78,32%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,17; 83,43</t>
+          <t>75,72; 83,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,54</t>
+          <t>73,73; 80,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,29; 80,94</t>
+          <t>75,91; 80,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>76,63%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,05; 80,73</t>
+          <t>70,34; 90,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,52; 74,99</t>
+          <t>69,71; 77,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 76,95</t>
+          <t>71,46; 85,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>66,12%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,91; 75,11</t>
+          <t>67,18; 74,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,3; 64,55</t>
+          <t>57,79; 64,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>64,19; 69,05</t>
+          <t>63,64; 68,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>49,0%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,41; 66,05</t>
+          <t>58,39; 69,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,74; 57,64</t>
+          <t>48,39; 60,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,66; 64,66</t>
+          <t>57,94; 68,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,63; 66,55</t>
+          <t>61,32; 69,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,88; 55,71</t>
+          <t>51,6; 61,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,19; 51,93</t>
+          <t>48,77; 58,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,61; 57,03</t>
+          <t>47,62; 58,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,51; 56,52</t>
+          <t>11,63; 60,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,92; 58,97</t>
+          <t>56,63; 64,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,44; 53,61</t>
+          <t>49,63; 57,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,81; 59,26</t>
+          <t>54,17; 61,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,99; 59,72</t>
+          <t>25,7; 63,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,49%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>51,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>55,06%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>50,81; 64,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 59,33</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51,82; 63,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>55,74; 64,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40,41; 52,44</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 48,84</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48,2; 59,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48,01; 54,97</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 55,19</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>42,83; 51,52</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>51,25; 59,31</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>52,29; 57,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>74,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>76,78%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76,92%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>75,96%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67,49%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>65,97%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>71,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>79,88; 82,84</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>72,61; 75,79</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>75,25; 78,3</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>74,11; 77,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>74,41; 83,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>74,35; 77,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>65,73; 69,16</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>69,91; 73,02</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>59,94; 70,21</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>52,89; 70,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>77,7; 79,68</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>69,55; 71,73</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>72,96; 75,19</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>67,73; 72,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>64,84; 74,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,31; 92,24</t>
+          <t>86,56; 92,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,89; 87,36</t>
+          <t>80,44; 87,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,44; 87,01</t>
+          <t>79,19; 86,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,12; 95,66</t>
+          <t>84,45; 95,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,69; 90,36</t>
+          <t>84,62; 90,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,94; 81,19</t>
+          <t>73,31; 81,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,07; 85,03</t>
+          <t>76,74; 84,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,48; 90,19</t>
+          <t>79,03; 89,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 90,65</t>
+          <t>86,51; 90,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,24; 83,26</t>
+          <t>78,39; 83,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,73; 84,87</t>
+          <t>79,63; 85,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,2; 91,72</t>
+          <t>84,36; 91,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,34; 90,3</t>
+          <t>85,19; 90,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,43; 83,39</t>
+          <t>77,21; 83,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,86; 85,33</t>
+          <t>78,87; 85,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,02; 88,26</t>
+          <t>78,98; 88,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,71; 87,27</t>
+          <t>81,46; 87,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,77; 82,48</t>
+          <t>75,86; 82,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,27; 87,3</t>
+          <t>81,28; 87,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,2; 88,88</t>
+          <t>77,14; 89,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,35; 88,14</t>
+          <t>84,42; 88,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,02; 82,02</t>
+          <t>77,5; 82,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,09; 85,48</t>
+          <t>81,06; 85,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,58; 87,03</t>
+          <t>79,92; 87,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,5; 86,53</t>
+          <t>80,59; 86,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,04; 82,03</t>
+          <t>75,29; 81,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,38; 83,49</t>
+          <t>77,06; 83,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,72; 83,1</t>
+          <t>75,78; 83,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,19; 86,08</t>
+          <t>80,45; 86,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,67; 80,4</t>
+          <t>73,78; 80,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,97; 82,06</t>
+          <t>75,99; 82,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,73; 80,2</t>
+          <t>74,2; 79,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,39; 85,39</t>
+          <t>81,48; 85,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,69; 80,17</t>
+          <t>75,27; 79,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,47; 81,93</t>
+          <t>77,41; 81,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,91; 80,6</t>
+          <t>75,83; 80,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,1; 86,2</t>
+          <t>79,09; 85,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,58; 77,41</t>
+          <t>69,7; 77,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,72; 82,36</t>
+          <t>76,0; 82,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,34; 90,68</t>
+          <t>70,02; 90,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,93; 82,5</t>
+          <t>75,45; 82,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,77; 70,76</t>
+          <t>62,76; 70,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,92; 76,23</t>
+          <t>68,48; 76,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,71; 77,25</t>
+          <t>69,89; 77,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,08; 83,4</t>
+          <t>78,07; 83,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,2; 72,81</t>
+          <t>67,41; 72,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,22; 78,18</t>
+          <t>73,39; 78,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,46; 85,23</t>
+          <t>71,25; 86,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,52; 82,65</t>
+          <t>74,56; 82,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,04; 78,04</t>
+          <t>69,22; 77,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,05; 79,5</t>
+          <t>71,09; 79,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,18; 74,48</t>
+          <t>67,2; 74,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,08; 77,37</t>
+          <t>68,71; 77,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,95; 63,92</t>
+          <t>54,53; 63,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,63; 69,47</t>
+          <t>61,08; 69,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,79; 64,11</t>
+          <t>57,9; 64,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,13; 79,01</t>
+          <t>73,05; 79,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,83; 69,37</t>
+          <t>62,88; 69,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>67,14; 73,37</t>
+          <t>67,28; 73,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>63,64; 68,56</t>
+          <t>63,56; 68,58</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,39; 69,3</t>
+          <t>58,82; 69,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,39; 60,29</t>
+          <t>47,88; 60,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,94; 68,67</t>
+          <t>58,05; 68,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,32; 69,15</t>
+          <t>60,93; 69,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,6; 61,78</t>
+          <t>51,81; 61,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,77; 58,7</t>
+          <t>48,3; 58,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,62; 58,0</t>
+          <t>48,27; 58,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,63; 60,56</t>
+          <t>15,42; 60,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56,63; 64,16</t>
+          <t>56,04; 63,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,63; 57,54</t>
+          <t>49,98; 57,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 61,59</t>
+          <t>54,05; 61,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,7; 63,24</t>
+          <t>25,78; 63,0</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50,81; 64,16</t>
+          <t>51,33; 65,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,7; 59,33</t>
+          <t>45,77; 59,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,82; 63,07</t>
+          <t>51,59; 62,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,74; 64,87</t>
+          <t>55,3; 64,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,41; 52,44</t>
+          <t>41,03; 52,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,7; 48,84</t>
+          <t>38,66; 49,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,2; 59,97</t>
+          <t>47,62; 59,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,01; 54,97</t>
+          <t>47,78; 54,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,12; 55,19</t>
+          <t>46,79; 54,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,83; 51,52</t>
+          <t>43,39; 51,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,25; 59,31</t>
+          <t>51,11; 59,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 57,88</t>
+          <t>52,52; 58,08</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,88; 82,84</t>
+          <t>80,16; 82,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,61; 75,79</t>
+          <t>72,57; 75,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75,25; 78,3</t>
+          <t>75,34; 78,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,41; 83,33</t>
+          <t>74,57; 82,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>74,35; 77,32</t>
+          <t>74,51; 77,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,73; 69,16</t>
+          <t>65,95; 69,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,91; 73,02</t>
+          <t>69,93; 73,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>52,89; 70,72</t>
+          <t>53,85; 70,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>77,7; 79,68</t>
+          <t>77,7; 79,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>69,55; 71,73</t>
+          <t>69,55; 71,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>72,96; 75,19</t>
+          <t>73,05; 75,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>64,84; 74,42</t>
+          <t>64,96; 74,31</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>437533</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>380484</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>349857</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>337835</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>407697</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>332874</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>320942</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>260133</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>845230</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>713357</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>670799</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>597969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>422112; 450148</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>363795; 394144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>332163; 364531</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>313479; 354166</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>393231; 421314</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>314690; 350042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>302982; 333762</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>241867; 274563</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>823875; 863068</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>691044; 736609</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>648364; 693437</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>571299; 622130</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>639030</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>552565</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>486594</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>342922</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>525203</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>483010</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>474644</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>411731</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1164234</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1035575</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>961238</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>754654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>618707; 656079</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>529782; 571699</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>465725; 503090</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>321214; 360649</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>505808; 541507</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>462125; 503096</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>456579; 489746</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>386819; 446738</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1137253; 1186900</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1003942; 1064643</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>934037; 984426</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>725814; 791519</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>524373</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>533577</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>537045</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>416628</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>572388</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>547059</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>522811</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>401150</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1096761</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1080637</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1059856</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>817778</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>504439; 542621</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>511266; 555730</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>514384; 557770</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>396586; 435154</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>552618; 591603</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>522997; 571869</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>502568; 544141</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>386507; 416300</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1069735; 1123432</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1044621; 1110006</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1028673; 1088223</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>791850; 840638</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>423776</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>450739</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>510378</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>694979</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>404444</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>411460</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>468501</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>509880</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>828219</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>862199</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>978878</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1204858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>405194; 440569</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>426965; 472030</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>489309; 529762</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>611454; 791335</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>386758; 422892</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>386734; 436070</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>442390; 491062</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>488576; 540503</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>800126; 851420</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>828310; 893992</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>946643; 1012055</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1120309; 1356485</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>300635</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>314425</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>387837</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>293759</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>263676</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>324281</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>321948</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>594394</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>578101</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>683232</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>709785</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>284258; 315492</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>295643; 332846</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>338893; 378102</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>366902; 407369</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>275451; 310900</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>243048; 284847</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>302852; 347025</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>305420; 338931</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>571341; 618851</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>548872; 606856</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>654318; 712700</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>682287; 736151</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>186070</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>167781</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>211552</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>236808</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>192246</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>189004</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>199374</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>234498</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>378315</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>356786</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>410926</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>471305</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>170432; 202779</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>148331; 186753</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>194064; 229988</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>221146; 251859</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>175219; 208041</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>170553; 207715</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>181864; 220501</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>92320; 362804</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>351893; 400593</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>331281; 382883</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>384376; 440406</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>247987; 605990</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>119807</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>129471</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>146586</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165169</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>154403</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>168113</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>212545</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>208114</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>274210</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>297583</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>359131</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>373283</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>105913; 134202</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>112935; 146857</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>131694; 160114</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>151200; 176874</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>136632; 174820</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>149442; 190445</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>187381; 233596</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>193305; 221538</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>252335; 296231</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>274808; 325670</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>331610; 386470</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>356086; 393791</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5076</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4591</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4886</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2631226</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2529041</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2600963</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2582177</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2550138</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2395197</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2523098</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2347455</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5181365</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4924238</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5124061</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4929632</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2588708; 2674029</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2477335; 2580460</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2552237; 2652505</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2503236; 2771638</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2501367; 2598566</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2340558; 2457196</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2468587; 2581803</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1916101; 2514675</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5118185; 5248700</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4842118; 5001553</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5053561; 5198847</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4492493; 5138820</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
